--- a/doc/Gantt-Chart-Lewontin-paradox-k-mer-variation.xlsx
+++ b/doc/Gantt-Chart-Lewontin-paradox-k-mer-variation.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="408" documentId="8_{90B809FF-8261-4630-9C16-65A73363CDE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4C0854C0-2287-4BD3-A3E8-3B1AEF1E8CDB}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D986F55-F126-4D66-AC91-CBD9C4A01019}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>Insert new rows ABOVE this one</t>
   </si>
@@ -344,6 +344,9 @@
   </si>
   <si>
     <t>Extra time for when things go wrong</t>
+  </si>
+  <si>
+    <t>piN/piS ~ Genome size + phylogeny</t>
   </si>
 </sst>
 </file>
@@ -1085,6 +1088,12 @@
     <xf numFmtId="0" fontId="9" fillId="17" borderId="2" xfId="12" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1096,12 +1105,6 @@
     </xf>
     <xf numFmtId="165" fontId="9" fillId="0" borderId="3" xfId="9">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="13">
@@ -1403,10 +1406,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1673,11 +1672,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL47"/>
+  <dimension ref="A1:BL48"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="6" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1728,106 +1727,106 @@
       <c r="B3" s="63" t="s">
         <v>37</v>
       </c>
-      <c r="C3" s="108" t="s">
+      <c r="C3" s="104" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="109"/>
-      <c r="E3" s="107">
+      <c r="D3" s="105"/>
+      <c r="E3" s="109">
         <v>44867</v>
       </c>
-      <c r="F3" s="107"/>
+      <c r="F3" s="109"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="58" t="s">
         <v>28</v>
       </c>
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="109"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="I4" s="104">
+      <c r="I4" s="106">
         <f>I5</f>
         <v>44865</v>
       </c>
-      <c r="J4" s="105"/>
-      <c r="K4" s="105"/>
-      <c r="L4" s="105"/>
-      <c r="M4" s="105"/>
-      <c r="N4" s="105"/>
-      <c r="O4" s="106"/>
-      <c r="P4" s="104">
+      <c r="J4" s="107"/>
+      <c r="K4" s="107"/>
+      <c r="L4" s="107"/>
+      <c r="M4" s="107"/>
+      <c r="N4" s="107"/>
+      <c r="O4" s="108"/>
+      <c r="P4" s="106">
         <f>P5</f>
         <v>44872</v>
       </c>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
-      <c r="S4" s="105"/>
-      <c r="T4" s="105"/>
-      <c r="U4" s="105"/>
-      <c r="V4" s="106"/>
-      <c r="W4" s="104">
+      <c r="Q4" s="107"/>
+      <c r="R4" s="107"/>
+      <c r="S4" s="107"/>
+      <c r="T4" s="107"/>
+      <c r="U4" s="107"/>
+      <c r="V4" s="108"/>
+      <c r="W4" s="106">
         <f>W5</f>
         <v>44879</v>
       </c>
-      <c r="X4" s="105"/>
-      <c r="Y4" s="105"/>
-      <c r="Z4" s="105"/>
-      <c r="AA4" s="105"/>
-      <c r="AB4" s="105"/>
-      <c r="AC4" s="106"/>
-      <c r="AD4" s="104">
+      <c r="X4" s="107"/>
+      <c r="Y4" s="107"/>
+      <c r="Z4" s="107"/>
+      <c r="AA4" s="107"/>
+      <c r="AB4" s="107"/>
+      <c r="AC4" s="108"/>
+      <c r="AD4" s="106">
         <f>AD5</f>
         <v>44886</v>
       </c>
-      <c r="AE4" s="105"/>
-      <c r="AF4" s="105"/>
-      <c r="AG4" s="105"/>
-      <c r="AH4" s="105"/>
-      <c r="AI4" s="105"/>
-      <c r="AJ4" s="106"/>
-      <c r="AK4" s="104">
+      <c r="AE4" s="107"/>
+      <c r="AF4" s="107"/>
+      <c r="AG4" s="107"/>
+      <c r="AH4" s="107"/>
+      <c r="AI4" s="107"/>
+      <c r="AJ4" s="108"/>
+      <c r="AK4" s="106">
         <f>AK5</f>
         <v>44893</v>
       </c>
-      <c r="AL4" s="105"/>
-      <c r="AM4" s="105"/>
-      <c r="AN4" s="105"/>
-      <c r="AO4" s="105"/>
-      <c r="AP4" s="105"/>
-      <c r="AQ4" s="106"/>
-      <c r="AR4" s="104">
+      <c r="AL4" s="107"/>
+      <c r="AM4" s="107"/>
+      <c r="AN4" s="107"/>
+      <c r="AO4" s="107"/>
+      <c r="AP4" s="107"/>
+      <c r="AQ4" s="108"/>
+      <c r="AR4" s="106">
         <f>AR5</f>
         <v>44900</v>
       </c>
-      <c r="AS4" s="105"/>
-      <c r="AT4" s="105"/>
-      <c r="AU4" s="105"/>
-      <c r="AV4" s="105"/>
-      <c r="AW4" s="105"/>
-      <c r="AX4" s="106"/>
-      <c r="AY4" s="104">
+      <c r="AS4" s="107"/>
+      <c r="AT4" s="107"/>
+      <c r="AU4" s="107"/>
+      <c r="AV4" s="107"/>
+      <c r="AW4" s="107"/>
+      <c r="AX4" s="108"/>
+      <c r="AY4" s="106">
         <f>AY5</f>
         <v>44907</v>
       </c>
-      <c r="AZ4" s="105"/>
-      <c r="BA4" s="105"/>
-      <c r="BB4" s="105"/>
-      <c r="BC4" s="105"/>
-      <c r="BD4" s="105"/>
-      <c r="BE4" s="106"/>
-      <c r="BF4" s="104">
+      <c r="AZ4" s="107"/>
+      <c r="BA4" s="107"/>
+      <c r="BB4" s="107"/>
+      <c r="BC4" s="107"/>
+      <c r="BD4" s="107"/>
+      <c r="BE4" s="108"/>
+      <c r="BF4" s="106">
         <f>BF5</f>
         <v>44914</v>
       </c>
-      <c r="BG4" s="105"/>
-      <c r="BH4" s="105"/>
-      <c r="BI4" s="105"/>
-      <c r="BJ4" s="105"/>
-      <c r="BK4" s="105"/>
-      <c r="BL4" s="106"/>
+      <c r="BG4" s="107"/>
+      <c r="BH4" s="107"/>
+      <c r="BI4" s="107"/>
+      <c r="BJ4" s="107"/>
+      <c r="BK4" s="107"/>
+      <c r="BL4" s="108"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="58" t="s">
@@ -2392,7 +2391,7 @@
       <c r="F8" s="20"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H44" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H45" si="6">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="43"/>
@@ -2856,7 +2855,9 @@
       <c r="C14" s="71" t="s">
         <v>41</v>
       </c>
-      <c r="D14" s="26"/>
+      <c r="D14" s="26">
+        <v>1</v>
+      </c>
       <c r="E14" s="65">
         <v>44873</v>
       </c>
@@ -3776,7 +3777,9 @@
       <c r="C26" s="73" t="s">
         <v>41</v>
       </c>
-      <c r="D26" s="31"/>
+      <c r="D26" s="31">
+        <v>1</v>
+      </c>
       <c r="E26" s="66">
         <v>44874</v>
       </c>
@@ -4002,7 +4005,9 @@
       <c r="C29" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="D29" s="101"/>
+      <c r="D29" s="101">
+        <v>1</v>
+      </c>
       <c r="E29" s="102">
         <v>44879</v>
       </c>
@@ -5037,21 +5042,15 @@
       <c r="BK42" s="43"/>
       <c r="BL42" s="43"/>
     </row>
-    <row r="43" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:64" s="3" customFormat="1" ht="130.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="57"/>
       <c r="B43" s="93" t="s">
-        <v>71</v>
-      </c>
-      <c r="C43" s="88" t="s">
-        <v>41</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C43" s="88"/>
       <c r="D43" s="89"/>
-      <c r="E43" s="90">
-        <v>44907</v>
-      </c>
-      <c r="F43" s="90">
-        <v>44907</v>
-      </c>
+      <c r="E43" s="90"/>
+      <c r="F43" s="90"/>
       <c r="G43" s="16"/>
       <c r="H43" s="16"/>
       <c r="I43" s="43"/>
@@ -5112,103 +5111,177 @@
       <c r="BL43" s="43"/>
     </row>
     <row r="44" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="58" t="s">
+      <c r="A44" s="57"/>
+      <c r="B44" s="93" t="s">
+        <v>71</v>
+      </c>
+      <c r="C44" s="88" t="s">
+        <v>41</v>
+      </c>
+      <c r="D44" s="89"/>
+      <c r="E44" s="90">
+        <v>44907</v>
+      </c>
+      <c r="F44" s="90">
+        <v>44907</v>
+      </c>
+      <c r="G44" s="16"/>
+      <c r="H44" s="16"/>
+      <c r="I44" s="43"/>
+      <c r="J44" s="43"/>
+      <c r="K44" s="43"/>
+      <c r="L44" s="43"/>
+      <c r="M44" s="43"/>
+      <c r="N44" s="43"/>
+      <c r="O44" s="43"/>
+      <c r="P44" s="43"/>
+      <c r="Q44" s="43"/>
+      <c r="R44" s="43"/>
+      <c r="S44" s="43"/>
+      <c r="T44" s="43"/>
+      <c r="U44" s="43"/>
+      <c r="V44" s="43"/>
+      <c r="W44" s="43"/>
+      <c r="X44" s="43"/>
+      <c r="Y44" s="43"/>
+      <c r="Z44" s="43"/>
+      <c r="AA44" s="43"/>
+      <c r="AB44" s="43"/>
+      <c r="AC44" s="43"/>
+      <c r="AD44" s="43"/>
+      <c r="AE44" s="43"/>
+      <c r="AF44" s="43"/>
+      <c r="AG44" s="43"/>
+      <c r="AH44" s="43"/>
+      <c r="AI44" s="43"/>
+      <c r="AJ44" s="43"/>
+      <c r="AK44" s="43"/>
+      <c r="AL44" s="43"/>
+      <c r="AM44" s="43"/>
+      <c r="AN44" s="43"/>
+      <c r="AO44" s="43"/>
+      <c r="AP44" s="43"/>
+      <c r="AQ44" s="43"/>
+      <c r="AR44" s="43"/>
+      <c r="AS44" s="43"/>
+      <c r="AT44" s="43"/>
+      <c r="AU44" s="43"/>
+      <c r="AV44" s="43"/>
+      <c r="AW44" s="43"/>
+      <c r="AX44" s="43"/>
+      <c r="AY44" s="43"/>
+      <c r="AZ44" s="43"/>
+      <c r="BA44" s="43"/>
+      <c r="BB44" s="43"/>
+      <c r="BC44" s="43"/>
+      <c r="BD44" s="43"/>
+      <c r="BE44" s="43"/>
+      <c r="BF44" s="43"/>
+      <c r="BG44" s="43"/>
+      <c r="BH44" s="43"/>
+      <c r="BI44" s="43"/>
+      <c r="BJ44" s="43"/>
+      <c r="BK44" s="43"/>
+      <c r="BL44" s="43"/>
+    </row>
+    <row r="45" spans="1:64" s="3" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="B44" s="37" t="s">
+      <c r="B45" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="C44" s="38"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="40"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42" t="str">
+      <c r="C45" s="38"/>
+      <c r="D45" s="39"/>
+      <c r="E45" s="40"/>
+      <c r="F45" s="41"/>
+      <c r="G45" s="42"/>
+      <c r="H45" s="42" t="str">
         <f t="shared" si="6"/>
         <v/>
       </c>
-      <c r="I44" s="45"/>
-      <c r="J44" s="45"/>
-      <c r="K44" s="45"/>
-      <c r="L44" s="45"/>
-      <c r="M44" s="45"/>
-      <c r="N44" s="45"/>
-      <c r="O44" s="45"/>
-      <c r="P44" s="45"/>
-      <c r="Q44" s="45"/>
-      <c r="R44" s="45"/>
-      <c r="S44" s="45"/>
-      <c r="T44" s="45"/>
-      <c r="U44" s="45"/>
-      <c r="V44" s="45"/>
-      <c r="W44" s="45"/>
-      <c r="X44" s="45"/>
-      <c r="Y44" s="45"/>
-      <c r="Z44" s="45"/>
-      <c r="AA44" s="45"/>
-      <c r="AB44" s="45"/>
-      <c r="AC44" s="45"/>
-      <c r="AD44" s="45"/>
-      <c r="AE44" s="45"/>
-      <c r="AF44" s="45"/>
-      <c r="AG44" s="45"/>
-      <c r="AH44" s="45"/>
-      <c r="AI44" s="45"/>
-      <c r="AJ44" s="45"/>
-      <c r="AK44" s="45"/>
-      <c r="AL44" s="45"/>
-      <c r="AM44" s="45"/>
-      <c r="AN44" s="45"/>
-      <c r="AO44" s="45"/>
-      <c r="AP44" s="45"/>
-      <c r="AQ44" s="45"/>
-      <c r="AR44" s="45"/>
-      <c r="AS44" s="45"/>
-      <c r="AT44" s="45"/>
-      <c r="AU44" s="45"/>
-      <c r="AV44" s="45"/>
-      <c r="AW44" s="45"/>
-      <c r="AX44" s="45"/>
-      <c r="AY44" s="45"/>
-      <c r="AZ44" s="45"/>
-      <c r="BA44" s="45"/>
-      <c r="BB44" s="45"/>
-      <c r="BC44" s="45"/>
-      <c r="BD44" s="45"/>
-      <c r="BE44" s="45"/>
-      <c r="BF44" s="45"/>
-      <c r="BG44" s="45"/>
-      <c r="BH44" s="45"/>
-      <c r="BI44" s="45"/>
-      <c r="BJ44" s="45"/>
-      <c r="BK44" s="45"/>
-      <c r="BL44" s="45"/>
-    </row>
-    <row r="45" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G45" s="6"/>
+      <c r="I45" s="45"/>
+      <c r="J45" s="45"/>
+      <c r="K45" s="45"/>
+      <c r="L45" s="45"/>
+      <c r="M45" s="45"/>
+      <c r="N45" s="45"/>
+      <c r="O45" s="45"/>
+      <c r="P45" s="45"/>
+      <c r="Q45" s="45"/>
+      <c r="R45" s="45"/>
+      <c r="S45" s="45"/>
+      <c r="T45" s="45"/>
+      <c r="U45" s="45"/>
+      <c r="V45" s="45"/>
+      <c r="W45" s="45"/>
+      <c r="X45" s="45"/>
+      <c r="Y45" s="45"/>
+      <c r="Z45" s="45"/>
+      <c r="AA45" s="45"/>
+      <c r="AB45" s="45"/>
+      <c r="AC45" s="45"/>
+      <c r="AD45" s="45"/>
+      <c r="AE45" s="45"/>
+      <c r="AF45" s="45"/>
+      <c r="AG45" s="45"/>
+      <c r="AH45" s="45"/>
+      <c r="AI45" s="45"/>
+      <c r="AJ45" s="45"/>
+      <c r="AK45" s="45"/>
+      <c r="AL45" s="45"/>
+      <c r="AM45" s="45"/>
+      <c r="AN45" s="45"/>
+      <c r="AO45" s="45"/>
+      <c r="AP45" s="45"/>
+      <c r="AQ45" s="45"/>
+      <c r="AR45" s="45"/>
+      <c r="AS45" s="45"/>
+      <c r="AT45" s="45"/>
+      <c r="AU45" s="45"/>
+      <c r="AV45" s="45"/>
+      <c r="AW45" s="45"/>
+      <c r="AX45" s="45"/>
+      <c r="AY45" s="45"/>
+      <c r="AZ45" s="45"/>
+      <c r="BA45" s="45"/>
+      <c r="BB45" s="45"/>
+      <c r="BC45" s="45"/>
+      <c r="BD45" s="45"/>
+      <c r="BE45" s="45"/>
+      <c r="BF45" s="45"/>
+      <c r="BG45" s="45"/>
+      <c r="BH45" s="45"/>
+      <c r="BI45" s="45"/>
+      <c r="BJ45" s="45"/>
+      <c r="BK45" s="45"/>
+      <c r="BL45" s="45"/>
     </row>
     <row r="46" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C46" s="14"/>
-      <c r="F46" s="59"/>
+      <c r="G46" s="6"/>
     </row>
     <row r="47" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C47" s="15"/>
+      <c r="C47" s="14"/>
+      <c r="F47" s="59"/>
+    </row>
+    <row r="48" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C48" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
-    <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
     <mergeCell ref="I4:O4"/>
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
+    <mergeCell ref="AY4:BE4"/>
   </mergeCells>
-  <conditionalFormatting sqref="D7:D44">
+  <conditionalFormatting sqref="D7:D45">
     <cfRule type="dataBar" priority="14">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -5222,12 +5295,12 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL44">
+  <conditionalFormatting sqref="I5:BL45">
     <cfRule type="expression" dxfId="2" priority="33">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL44">
+  <conditionalFormatting sqref="I7:BL45">
     <cfRule type="expression" dxfId="1" priority="27">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5266,7 +5339,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D44</xm:sqref>
+          <xm:sqref>D7:D45</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
